--- a/DOCUMENTS/LIST ROOM TAKEDA.xlsx
+++ b/DOCUMENTS/LIST ROOM TAKEDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp74\htdocs\takeda_plc\DOCUMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDED312-05C7-4C60-8A14-37B1CF8E6B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390744CA-215A-4C3F-B08A-B092351EF806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="139">
   <si>
     <t>AREA 1</t>
   </si>
@@ -353,9 +353,6 @@
     <t>brochure</t>
   </si>
   <si>
-    <t>tidak ada field humidity</t>
-  </si>
-  <si>
     <t>airlock</t>
   </si>
   <si>
@@ -441,15 +438,6 @@
   </si>
   <si>
     <t xml:space="preserve"> ADD PRIMARY KEY (ID);</t>
-  </si>
-  <si>
-    <t>field date &amp; time menggunakan INT</t>
-  </si>
-  <si>
-    <t>tidak ada PK</t>
-  </si>
-  <si>
-    <t>time menggunakan timestamp</t>
   </si>
   <si>
     <t>CATATAN</t>
@@ -529,7 +517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -540,12 +528,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,10 +986,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1017,126 +999,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="127" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -1785,7 +1658,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -1801,7 +1674,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -1809,7 +1682,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -1817,7 +1690,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -1825,7 +1698,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -1833,7 +1706,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1841,7 +1714,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -1849,7 +1722,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -1857,7 +1730,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -1865,7 +1738,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -1873,7 +1746,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -1881,7 +1754,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -1889,7 +1762,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -1897,7 +1770,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -1905,7 +1778,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -1913,7 +1786,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -1921,7 +1794,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -1929,7 +1802,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -1937,7 +1810,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -1945,7 +1818,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -1953,7 +1826,7 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -1961,7 +1834,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -2008,7 +1881,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -2016,7 +1889,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -2024,7 +1897,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -2032,7 +1905,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -2040,7 +1913,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -2069,13 +1942,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" t="str">
         <f>CONCATENATE(A1,B1,C1)</f>
@@ -2084,13 +1957,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D65" si="0">CONCATENATE(A2,B2,C2)</f>
@@ -2099,13 +1972,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -2114,13 +1987,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2129,13 +2002,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2144,13 +2017,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2159,13 +2032,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2174,13 +2047,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2189,13 +2062,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -2204,13 +2077,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2219,13 +2092,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2234,13 +2107,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2249,13 +2122,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -2264,13 +2137,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -2279,13 +2152,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -2294,13 +2167,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2309,13 +2182,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -2324,13 +2197,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -2339,13 +2212,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -2354,13 +2227,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
         <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -2369,13 +2242,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
         <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -2384,13 +2257,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
         <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -2399,13 +2272,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
         <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -2414,13 +2287,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
         <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -2429,13 +2302,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
         <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -2444,13 +2317,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
         <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -2459,13 +2332,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -2474,13 +2347,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
         <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -2489,13 +2362,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -2504,13 +2377,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
         <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2519,13 +2392,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
         <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -2534,13 +2407,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -2549,13 +2422,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -2564,13 +2437,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -2579,13 +2452,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -2594,13 +2467,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -2609,13 +2482,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2624,13 +2497,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2639,13 +2512,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -2654,13 +2527,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2669,13 +2542,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -2684,13 +2557,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -2699,13 +2572,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
         <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -2714,13 +2587,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
         <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -2729,13 +2602,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -2744,13 +2617,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -2759,13 +2632,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -2774,13 +2647,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -2789,13 +2662,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
         <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -2804,13 +2677,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
         <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -2819,13 +2692,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
         <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -2834,13 +2707,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
         <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -2849,13 +2722,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -2864,13 +2737,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -2879,13 +2752,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s">
         <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -2894,13 +2767,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
         <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2909,13 +2782,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
         <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -2924,13 +2797,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s">
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -2939,13 +2812,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -2954,13 +2827,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
         <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -2969,13 +2842,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" t="s">
         <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -2984,13 +2857,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
         <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -2999,13 +2872,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
         <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -3014,13 +2887,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
         <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -3029,13 +2902,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
         <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -3044,13 +2917,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
         <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ref="D66:D69" si="1">CONCATENATE(A66,B66,C66)</f>
@@ -3059,13 +2932,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
         <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="1"/>
@@ -3074,13 +2947,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
         <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -3089,13 +2962,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
         <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -3125,13 +2998,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" t="str">
         <f>CONCATENATE(A1,B1,C1)</f>
@@ -3140,13 +3013,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D29" si="0">CONCATENATE(A2,B2,C2)</f>
@@ -3155,13 +3028,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -3170,13 +3043,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -3185,13 +3058,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -3200,13 +3073,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -3215,13 +3088,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -3230,13 +3103,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -3245,13 +3118,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -3260,13 +3133,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -3275,13 +3148,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -3290,13 +3163,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -3305,13 +3178,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -3320,13 +3193,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -3335,13 +3208,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -3350,13 +3223,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -3365,13 +3238,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -3380,13 +3253,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -3395,13 +3268,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -3410,13 +3283,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -3425,13 +3298,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -3440,13 +3313,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -3455,13 +3328,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -3470,13 +3343,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
         <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -3485,13 +3358,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -3500,13 +3373,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -3515,13 +3388,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -3530,13 +3403,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -3545,13 +3418,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>

--- a/DOCUMENTS/LIST ROOM TAKEDA.xlsx
+++ b/DOCUMENTS/LIST ROOM TAKEDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp74\htdocs\takeda_plc\DOCUMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390744CA-215A-4C3F-B08A-B092351EF806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC95232-85F0-4CCA-B41B-2C77AE711E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="plan 2 - p" sheetId="5" r:id="rId6"/>
     <sheet name="sql add PK plan 1" sheetId="7" r:id="rId7"/>
     <sheet name="sql add PK plan 2" sheetId="8" r:id="rId8"/>
+    <sheet name="DUMMY TNH" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="144">
   <si>
     <t>AREA 1</t>
   </si>
@@ -444,12 +445,31 @@
   </si>
   <si>
     <t>PLANT</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>TEMPERATURE</t>
+  </si>
+  <si>
+    <t>HUMIDITY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="hh:mm"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -517,7 +537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,6 +555,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,7 +840,7 @@
   <dimension ref="B3:F20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -988,7 +1014,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1020,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDFA1C6-02B3-41CC-890C-66C0A827DA86}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
@@ -3434,4 +3460,1744 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBE277B-476E-4F87-B005-F46B2B118466}">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44657</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1.125</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1.2083333333333299</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1.2916666666666701</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1.375</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1.4166666666666701</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1.4583333333333299</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1.5416666666666701</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1.5833333333333299</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1.625</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1.6666666666666701</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1.7083333333333299</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1.7916666666666701</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1.8333333333333299</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1.875</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1.9166666666666701</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1.9583333333333299</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2.0416666666666701</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2.0833333333333299</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2.125</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
+      </c>
+      <c r="E46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2.1666666666666701</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2.2083333333333299</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="D49">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C50" s="7">
+        <v>2.2916666666666701</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C51" s="7">
+        <v>2.3333333333333299</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C52" s="7">
+        <v>2.375</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C53" s="7">
+        <v>2.4166666666666701</v>
+      </c>
+      <c r="D53">
+        <v>50</v>
+      </c>
+      <c r="E53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C54" s="7">
+        <v>2.4583333333333299</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C55" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="D55">
+        <v>50</v>
+      </c>
+      <c r="E55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C56" s="7">
+        <v>2.5416666666666701</v>
+      </c>
+      <c r="D56">
+        <v>50</v>
+      </c>
+      <c r="E56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C57" s="7">
+        <v>2.5833333333333299</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
+      </c>
+      <c r="E57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C58" s="7">
+        <v>2.625</v>
+      </c>
+      <c r="D58">
+        <v>50</v>
+      </c>
+      <c r="E58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C59" s="7">
+        <v>2.6666666666666701</v>
+      </c>
+      <c r="D59">
+        <v>50</v>
+      </c>
+      <c r="E59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C60" s="7">
+        <v>2.7083333333333299</v>
+      </c>
+      <c r="D60">
+        <v>50</v>
+      </c>
+      <c r="E60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C61" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
+      </c>
+      <c r="E61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C62" s="7">
+        <v>2.7916666666666701</v>
+      </c>
+      <c r="D62">
+        <v>50</v>
+      </c>
+      <c r="E62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C63" s="7">
+        <v>2.8333333333333299</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C64" s="7">
+        <v>2.875</v>
+      </c>
+      <c r="D64">
+        <v>50</v>
+      </c>
+      <c r="E64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C65" s="7">
+        <v>2.9166666666666701</v>
+      </c>
+      <c r="D65">
+        <v>50</v>
+      </c>
+      <c r="E65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C66" s="7">
+        <v>2.9583333333333299</v>
+      </c>
+      <c r="D66">
+        <v>50</v>
+      </c>
+      <c r="E66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C67" s="7">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>50</v>
+      </c>
+      <c r="E67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C68" s="7">
+        <v>3.0416666666666701</v>
+      </c>
+      <c r="D68">
+        <v>50</v>
+      </c>
+      <c r="E68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C69" s="7">
+        <v>3.0833333333333299</v>
+      </c>
+      <c r="D69">
+        <v>50</v>
+      </c>
+      <c r="E69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C70" s="7">
+        <v>3.125</v>
+      </c>
+      <c r="D70">
+        <v>50</v>
+      </c>
+      <c r="E70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C71" s="7">
+        <v>3.1666666666666701</v>
+      </c>
+      <c r="D71">
+        <v>50</v>
+      </c>
+      <c r="E71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C72" s="7">
+        <v>3.2083333333333299</v>
+      </c>
+      <c r="D72">
+        <v>50</v>
+      </c>
+      <c r="E72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C73" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="D73">
+        <v>50</v>
+      </c>
+      <c r="E73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C74" s="7">
+        <v>3.2916666666666701</v>
+      </c>
+      <c r="D74">
+        <v>50</v>
+      </c>
+      <c r="E74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C75" s="7">
+        <v>3.3333333333333299</v>
+      </c>
+      <c r="D75">
+        <v>50</v>
+      </c>
+      <c r="E75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C76" s="7">
+        <v>3.375</v>
+      </c>
+      <c r="D76">
+        <v>50</v>
+      </c>
+      <c r="E76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C77" s="7">
+        <v>3.4166666666666701</v>
+      </c>
+      <c r="D77">
+        <v>50</v>
+      </c>
+      <c r="E77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C78" s="7">
+        <v>3.4583333333333299</v>
+      </c>
+      <c r="D78">
+        <v>50</v>
+      </c>
+      <c r="E78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C79" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="D79">
+        <v>50</v>
+      </c>
+      <c r="E79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C80" s="7">
+        <v>3.5416666666666701</v>
+      </c>
+      <c r="D80">
+        <v>50</v>
+      </c>
+      <c r="E80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C81" s="7">
+        <v>3.5833333333333299</v>
+      </c>
+      <c r="D81">
+        <v>50</v>
+      </c>
+      <c r="E81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C82" s="7">
+        <v>3.625</v>
+      </c>
+      <c r="D82">
+        <v>50</v>
+      </c>
+      <c r="E82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C83" s="7">
+        <v>3.6666666666666701</v>
+      </c>
+      <c r="D83">
+        <v>50</v>
+      </c>
+      <c r="E83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C84" s="7">
+        <v>3.7083333333333299</v>
+      </c>
+      <c r="D84">
+        <v>50</v>
+      </c>
+      <c r="E84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C85" s="7">
+        <v>3.75</v>
+      </c>
+      <c r="D85">
+        <v>50</v>
+      </c>
+      <c r="E85">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C86" s="7">
+        <v>3.7916666666666701</v>
+      </c>
+      <c r="D86">
+        <v>50</v>
+      </c>
+      <c r="E86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C87" s="7">
+        <v>3.8333333333333299</v>
+      </c>
+      <c r="D87">
+        <v>50</v>
+      </c>
+      <c r="E87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C88" s="7">
+        <v>3.875</v>
+      </c>
+      <c r="D88">
+        <v>50</v>
+      </c>
+      <c r="E88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C89" s="7">
+        <v>3.9166666666666701</v>
+      </c>
+      <c r="D89">
+        <v>50</v>
+      </c>
+      <c r="E89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C90" s="7">
+        <v>3.9583333333333299</v>
+      </c>
+      <c r="D90">
+        <v>50</v>
+      </c>
+      <c r="E90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6">
+        <v>44661</v>
+      </c>
+      <c r="C91" s="7">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>50</v>
+      </c>
+      <c r="E91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6">
+        <v>44661</v>
+      </c>
+      <c r="C92" s="7">
+        <v>4.0416666666666696</v>
+      </c>
+      <c r="D92">
+        <v>50</v>
+      </c>
+      <c r="E92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6">
+        <v>44661</v>
+      </c>
+      <c r="C93" s="7">
+        <v>4.0833333333333304</v>
+      </c>
+      <c r="D93">
+        <v>50</v>
+      </c>
+      <c r="E93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6">
+        <v>44661</v>
+      </c>
+      <c r="C94" s="7">
+        <v>4.125</v>
+      </c>
+      <c r="D94">
+        <v>50</v>
+      </c>
+      <c r="E94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6">
+        <v>44661</v>
+      </c>
+      <c r="C95" s="7">
+        <v>4.1666666666666696</v>
+      </c>
+      <c r="D95">
+        <v>50</v>
+      </c>
+      <c r="E95">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="6">
+        <v>44661</v>
+      </c>
+      <c r="C96" s="7">
+        <v>4.2083333333333304</v>
+      </c>
+      <c r="D96">
+        <v>50</v>
+      </c>
+      <c r="E96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6">
+        <v>44661</v>
+      </c>
+      <c r="C97" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="D97">
+        <v>50</v>
+      </c>
+      <c r="E97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6">
+        <v>44661</v>
+      </c>
+      <c r="C98" s="7">
+        <v>4.2916666666666696</v>
+      </c>
+      <c r="D98">
+        <v>50</v>
+      </c>
+      <c r="E98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6">
+        <v>44661</v>
+      </c>
+      <c r="C99" s="7">
+        <v>4.3333333333333304</v>
+      </c>
+      <c r="D99">
+        <v>50</v>
+      </c>
+      <c r="E99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6">
+        <v>44661</v>
+      </c>
+      <c r="C100" s="7">
+        <v>4.375</v>
+      </c>
+      <c r="D100">
+        <v>50</v>
+      </c>
+      <c r="E100">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6">
+        <v>44661</v>
+      </c>
+      <c r="C101" s="7">
+        <v>4.4166666666666696</v>
+      </c>
+      <c r="D101">
+        <v>50</v>
+      </c>
+      <c r="E101">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="127" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOCUMENTS/LIST ROOM TAKEDA.xlsx
+++ b/DOCUMENTS/LIST ROOM TAKEDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp74\htdocs\takeda_plc\DOCUMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC95232-85F0-4CCA-B41B-2C77AE711E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA588495-204A-4EC2-8160-267E0C729D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="760" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,17 @@
     <sheet name="sql add PK plan 1" sheetId="7" r:id="rId7"/>
     <sheet name="sql add PK plan 2" sheetId="8" r:id="rId8"/>
     <sheet name="DUMMY TNH" sheetId="9" r:id="rId9"/>
+    <sheet name="p1 tnh sql change int to float" sheetId="12" r:id="rId10"/>
+    <sheet name="p2 tnh sql change int to float" sheetId="10" r:id="rId11"/>
+    <sheet name="p1 p sql change int to float" sheetId="13" r:id="rId12"/>
+    <sheet name="p2 p sql change int to float" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="147">
   <si>
     <t>AREA 1</t>
   </si>
@@ -460,6 +464,15 @@
   </si>
   <si>
     <t>HUMIDITY</t>
+  </si>
+  <si>
+    <t>MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</t>
+  </si>
+  <si>
+    <t>MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</t>
+  </si>
+  <si>
+    <t>`small weghing`</t>
   </si>
 </sst>
 </file>
@@ -553,14 +566,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,6 +1020,1545 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D25BE3-105B-4B56-ADF3-206AC8D1F2C1}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE(B1,A1," ",C1)</f>
+        <v>ALTER TABLE blisteringckd MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D31" si="0">CONCATENATE(B2,A2," ",C2)</f>
+        <v>ALTER TABLE blisteringuhl MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE capsule MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE cleanarea MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE coating MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridor MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE dirtyarea MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE drying MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE granulasia MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE granulasib MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE ipc MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE megurohs MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE megurohsd MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE mixing MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE oinment MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE preparation MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE pulverizing MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE rawmaterial MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE recivingyard MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE semiproductionstorage MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE siebler MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `small weghing` MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE stagging MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE sugarmilling MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE suppositoria MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE tableting1 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE tableting2 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE tableting3 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE udaf MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE udaf1 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE weighing MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE94E66D-D0B5-4BE9-935A-6493D497E845}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE(B1,A1," ",C1)</f>
+        <v>ALTER TABLE airlock MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D24" si="0">CONCATENATE(B2,A2," ",C2)</f>
+        <v>ALTER TABLE brochure MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE climaticroom MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE coolstrorage MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE coolstrorage2 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE eqqc01501 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE eqqc01502 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE locker MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE materialairlock MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE microincubator1 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE microincubator2 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE microincubator3 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE pac01 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE pac02 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE pac03 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE reagentrefrigerator1 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE reagentrefrigerator2 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE reagentroom MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE refrigatorstock MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE refrigerator MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE refrigerator2 MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE retainsample MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE samplingroom MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE udaf MODIFY COLUMN `TEMPERATURE` float NOT NULL AFTER `TIME`, MODIFY COLUMN `HUMIDITY` float NOT NULL AFTER `TEMPERATURE`;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD45B52-3E51-4C79-A287-53C270D3EA8B}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE(B1,A1," ",C1)</f>
+        <v>ALTER TABLE airlocktosecondpack MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D38" si="0">CONCATENATE(B2,A2," ",C2)</f>
+        <v>ALTER TABLE axistomixing MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE axistoointment MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE axistopulvrizing MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE axistosugarmilling MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE axistosupositoria MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE axistoweighing MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortoairlock MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortoatm MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortoblisteringckd MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortoblisteringuhl MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortocapsule MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortocleanarea MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortocoating MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortodirtyarea MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortodrying MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortogranulationa MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortogranulationb MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortoipc MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortomegurohs MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortomegurohsd MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortopreparation MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortorawmaterial MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortosemiprodstorage MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortosiebler MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortostagging MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortotableting1 MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortotableting2 MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE corridortotableting3 MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE materialenterancetoatm MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE recivingyardtoatm MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE secondpacktoblisteringckd MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE secondpacktoblisteringuhl MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE secondpacktomaterialenterance MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE secondpacktomegurohs MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE secondpacktomegurohsd MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE secondpacktosiebler MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE smallweghingtoweighing MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9A254A-0D07-4E9C-AE54-B31AB6804613}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE(B1,A1," ",C1)</f>
+        <v>ALTER TABLE airlocktolocker MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D5" si="0">CONCATENATE(B2,A2," ",C2)</f>
+        <v>ALTER TABLE lockertoatm MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE materialairlocktoatm MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE samplingtoairlock MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE samplingtomaterialairlock MODIFY COLUMN `PRESSURE` float NOT NULL AFTER `TIME`;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94DD1FB-8720-44D4-8BF5-44157CF4AC36}">
   <sheetPr>
@@ -1025,10 +2577,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="4" t="s">
         <v>138</v>
       </c>
@@ -1325,7 +2877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545643C5-E9C3-4A73-A067-F58972A3D367}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B39"/>
     </sheetView>
   </sheetViews>
@@ -1660,7 +3212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1586952D-B4F3-46A1-8E9D-9CF257509B9B}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
@@ -3466,15 +5018,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBE277B-476E-4F87-B005-F46B2B118466}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3483,10 +5035,10 @@
       <c r="A1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D1" t="s">
@@ -3500,10 +5052,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>44657</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0.29166666666666669</v>
       </c>
       <c r="D2">
@@ -3517,10 +5069,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>44657</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0.33333333333333298</v>
       </c>
       <c r="D3">
@@ -3534,10 +5086,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>44657</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.375</v>
       </c>
       <c r="D4">
@@ -3551,10 +5103,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>44657</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.41666666666666702</v>
       </c>
       <c r="D5">
@@ -3568,10 +5120,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>44657</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.45833333333333298</v>
       </c>
       <c r="D6">
@@ -3585,10 +5137,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>44657</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.5</v>
       </c>
       <c r="D7">
@@ -3602,10 +5154,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>44657</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.54166666666666696</v>
       </c>
       <c r="D8">
@@ -3619,10 +5171,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>44657</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.58333333333333304</v>
       </c>
       <c r="D9">
@@ -3636,10 +5188,10 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>44657</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>0.625</v>
       </c>
       <c r="D10">
@@ -3653,10 +5205,10 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>44657</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>0.66666666666666696</v>
       </c>
       <c r="D11">
@@ -3670,10 +5222,10 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>44657</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>0.70833333333333304</v>
       </c>
       <c r="D12">
@@ -3687,10 +5239,10 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>44657</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>0.75</v>
       </c>
       <c r="D13">
@@ -3704,10 +5256,10 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>44657</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>0.79166666666666696</v>
       </c>
       <c r="D14">
@@ -3721,10 +5273,10 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>44657</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>0.83333333333333304</v>
       </c>
       <c r="D15">
@@ -3738,10 +5290,10 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>44657</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>0.875</v>
       </c>
       <c r="D16">
@@ -3755,10 +5307,10 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>44657</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>0.91666666666666696</v>
       </c>
       <c r="D17">
@@ -3772,10 +5324,10 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>44657</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>0.95833333333333304</v>
       </c>
       <c r="D18">
@@ -3789,10 +5341,10 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>44658</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>1</v>
       </c>
       <c r="D19">
@@ -3806,10 +5358,10 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>44658</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>1.0416666666666701</v>
       </c>
       <c r="D20">
@@ -3823,10 +5375,10 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>44658</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>1.0833333333333299</v>
       </c>
       <c r="D21">
@@ -3840,10 +5392,10 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>44658</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>1.125</v>
       </c>
       <c r="D22">
@@ -3857,10 +5409,10 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>44658</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>1.1666666666666701</v>
       </c>
       <c r="D23">
@@ -3874,10 +5426,10 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>44658</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>1.2083333333333299</v>
       </c>
       <c r="D24">
@@ -3891,10 +5443,10 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>44658</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>1.25</v>
       </c>
       <c r="D25">
@@ -3908,10 +5460,10 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>44658</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>1.2916666666666701</v>
       </c>
       <c r="D26">
@@ -3925,10 +5477,10 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>44658</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>1.3333333333333299</v>
       </c>
       <c r="D27">
@@ -3942,10 +5494,10 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>44658</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>1.375</v>
       </c>
       <c r="D28">
@@ -3959,10 +5511,10 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>44658</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>1.4166666666666701</v>
       </c>
       <c r="D29">
@@ -3976,10 +5528,10 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>44658</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>1.4583333333333299</v>
       </c>
       <c r="D30">
@@ -3993,10 +5545,10 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>44658</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>1.5</v>
       </c>
       <c r="D31">
@@ -4010,10 +5562,10 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>44658</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>1.5416666666666701</v>
       </c>
       <c r="D32">
@@ -4027,10 +5579,10 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>44658</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>1.5833333333333299</v>
       </c>
       <c r="D33">
@@ -4044,10 +5596,10 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>44658</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>1.625</v>
       </c>
       <c r="D34">
@@ -4061,10 +5613,10 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>44658</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>1.6666666666666701</v>
       </c>
       <c r="D35">
@@ -4078,10 +5630,10 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>44658</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>1.7083333333333299</v>
       </c>
       <c r="D36">
@@ -4095,10 +5647,10 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>44658</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>1.75</v>
       </c>
       <c r="D37">
@@ -4112,10 +5664,10 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>44658</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>1.7916666666666701</v>
       </c>
       <c r="D38">
@@ -4129,10 +5681,10 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>44658</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>1.8333333333333299</v>
       </c>
       <c r="D39">
@@ -4146,10 +5698,10 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>44658</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>1.875</v>
       </c>
       <c r="D40">
@@ -4163,10 +5715,10 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>44658</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>1.9166666666666701</v>
       </c>
       <c r="D41">
@@ -4180,10 +5732,10 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>44658</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>1.9583333333333299</v>
       </c>
       <c r="D42">
@@ -4197,10 +5749,10 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>44659</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>2</v>
       </c>
       <c r="D43">
@@ -4214,10 +5766,10 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>44659</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>2.0416666666666701</v>
       </c>
       <c r="D44">
@@ -4231,10 +5783,10 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>44659</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>2.0833333333333299</v>
       </c>
       <c r="D45">
@@ -4248,10 +5800,10 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>44659</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>2.125</v>
       </c>
       <c r="D46">
@@ -4265,10 +5817,10 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>44659</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>2.1666666666666701</v>
       </c>
       <c r="D47">
@@ -4282,10 +5834,10 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>44659</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>2.2083333333333299</v>
       </c>
       <c r="D48">
@@ -4299,10 +5851,10 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>44659</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>2.25</v>
       </c>
       <c r="D49">
@@ -4316,10 +5868,10 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>44659</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>2.2916666666666701</v>
       </c>
       <c r="D50">
@@ -4333,10 +5885,10 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>44659</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>2.3333333333333299</v>
       </c>
       <c r="D51">
@@ -4350,10 +5902,10 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>44659</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>2.375</v>
       </c>
       <c r="D52">
@@ -4367,10 +5919,10 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>44659</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>2.4166666666666701</v>
       </c>
       <c r="D53">
@@ -4384,10 +5936,10 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>44659</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>2.4583333333333299</v>
       </c>
       <c r="D54">
@@ -4401,10 +5953,10 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <v>44659</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>2.5</v>
       </c>
       <c r="D55">
@@ -4418,10 +5970,10 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>44659</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>2.5416666666666701</v>
       </c>
       <c r="D56">
@@ -4435,10 +5987,10 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>44659</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>2.5833333333333299</v>
       </c>
       <c r="D57">
@@ -4452,10 +6004,10 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>44659</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>2.625</v>
       </c>
       <c r="D58">
@@ -4469,10 +6021,10 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>44659</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>2.6666666666666701</v>
       </c>
       <c r="D59">
@@ -4486,10 +6038,10 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>44659</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>2.7083333333333299</v>
       </c>
       <c r="D60">
@@ -4503,10 +6055,10 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>44659</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>2.75</v>
       </c>
       <c r="D61">
@@ -4520,10 +6072,10 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>44659</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>2.7916666666666701</v>
       </c>
       <c r="D62">
@@ -4537,10 +6089,10 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>44659</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>2.8333333333333299</v>
       </c>
       <c r="D63">
@@ -4554,10 +6106,10 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>44659</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>2.875</v>
       </c>
       <c r="D64">
@@ -4571,10 +6123,10 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>44659</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>2.9166666666666701</v>
       </c>
       <c r="D65">
@@ -4588,10 +6140,10 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>44659</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>2.9583333333333299</v>
       </c>
       <c r="D66">
@@ -4605,10 +6157,10 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>44660</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>3</v>
       </c>
       <c r="D67">
@@ -4622,10 +6174,10 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <v>44660</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>3.0416666666666701</v>
       </c>
       <c r="D68">
@@ -4639,10 +6191,10 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>44660</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>3.0833333333333299</v>
       </c>
       <c r="D69">
@@ -4656,10 +6208,10 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <v>44660</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>3.125</v>
       </c>
       <c r="D70">
@@ -4673,10 +6225,10 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>44660</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>3.1666666666666701</v>
       </c>
       <c r="D71">
@@ -4690,10 +6242,10 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <v>44660</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>3.2083333333333299</v>
       </c>
       <c r="D72">
@@ -4707,10 +6259,10 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="5">
         <v>44660</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>3.25</v>
       </c>
       <c r="D73">
@@ -4724,10 +6276,10 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="5">
         <v>44660</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>3.2916666666666701</v>
       </c>
       <c r="D74">
@@ -4741,10 +6293,10 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="5">
         <v>44660</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>3.3333333333333299</v>
       </c>
       <c r="D75">
@@ -4758,10 +6310,10 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="5">
         <v>44660</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>3.375</v>
       </c>
       <c r="D76">
@@ -4775,10 +6327,10 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>44660</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>3.4166666666666701</v>
       </c>
       <c r="D77">
@@ -4792,10 +6344,10 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <v>44660</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <v>3.4583333333333299</v>
       </c>
       <c r="D78">
@@ -4809,10 +6361,10 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="5">
         <v>44660</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="6">
         <v>3.5</v>
       </c>
       <c r="D79">
@@ -4826,10 +6378,10 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <v>44660</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="6">
         <v>3.5416666666666701</v>
       </c>
       <c r="D80">
@@ -4843,10 +6395,10 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>44660</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="6">
         <v>3.5833333333333299</v>
       </c>
       <c r="D81">
@@ -4860,10 +6412,10 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>44660</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <v>3.625</v>
       </c>
       <c r="D82">
@@ -4877,10 +6429,10 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="5">
         <v>44660</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="6">
         <v>3.6666666666666701</v>
       </c>
       <c r="D83">
@@ -4894,10 +6446,10 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="5">
         <v>44660</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="6">
         <v>3.7083333333333299</v>
       </c>
       <c r="D84">
@@ -4911,10 +6463,10 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="5">
         <v>44660</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="6">
         <v>3.75</v>
       </c>
       <c r="D85">
@@ -4928,10 +6480,10 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="5">
         <v>44660</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="6">
         <v>3.7916666666666701</v>
       </c>
       <c r="D86">
@@ -4945,10 +6497,10 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="5">
         <v>44660</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="6">
         <v>3.8333333333333299</v>
       </c>
       <c r="D87">
@@ -4962,10 +6514,10 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="5">
         <v>44660</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="6">
         <v>3.875</v>
       </c>
       <c r="D88">
@@ -4979,10 +6531,10 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="5">
         <v>44660</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="6">
         <v>3.9166666666666701</v>
       </c>
       <c r="D89">
@@ -4996,10 +6548,10 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="5">
         <v>44660</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="6">
         <v>3.9583333333333299</v>
       </c>
       <c r="D90">
@@ -5013,10 +6565,10 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="5">
         <v>44661</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="6">
         <v>4</v>
       </c>
       <c r="D91">
@@ -5030,10 +6582,10 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="5">
         <v>44661</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="6">
         <v>4.0416666666666696</v>
       </c>
       <c r="D92">
@@ -5047,10 +6599,10 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="5">
         <v>44661</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="6">
         <v>4.0833333333333304</v>
       </c>
       <c r="D93">
@@ -5064,10 +6616,10 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="5">
         <v>44661</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="6">
         <v>4.125</v>
       </c>
       <c r="D94">
@@ -5081,10 +6633,10 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="5">
         <v>44661</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="6">
         <v>4.1666666666666696</v>
       </c>
       <c r="D95">
@@ -5098,10 +6650,10 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="5">
         <v>44661</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <v>4.2083333333333304</v>
       </c>
       <c r="D96">
@@ -5115,10 +6667,10 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="5">
         <v>44661</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <v>4.25</v>
       </c>
       <c r="D97">
@@ -5132,10 +6684,10 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="5">
         <v>44661</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="6">
         <v>4.2916666666666696</v>
       </c>
       <c r="D98">
@@ -5149,10 +6701,10 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="5">
         <v>44661</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="6">
         <v>4.3333333333333304</v>
       </c>
       <c r="D99">
@@ -5166,10 +6718,10 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="5">
         <v>44661</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="6">
         <v>4.375</v>
       </c>
       <c r="D100">
@@ -5183,10 +6735,10 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="5">
         <v>44661</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="6">
         <v>4.4166666666666696</v>
       </c>
       <c r="D101">
